--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,9 +18,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
-  <si>
-    <t>土地.坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段02930000地號</t>
+  </si>
+  <si>
+    <t>100000分之16216</t>
+  </si>
+  <si>
+    <t>高金素梅</t>
+  </si>
+  <si>
+    <t>92年12月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>25000000(土地建物與車位合併價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp2f3b1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -41,36 +113,12 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段 0293-0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 16216</t>
-  </si>
-  <si>
-    <t>高金素梅</t>
-  </si>
-  <si>
-    <t>92年12月 25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>2'5，000,000( 土地、建物與 車位合併價）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段 05819-000 建號</t>
+    <t>臺北市大安區龍泉段一小段05819000建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>25’000,000( 土地'建物與 車位合併價）</t>
-  </si>
-  <si>
     <t>廠牌型號</t>
   </si>
   <si>
@@ -131,13 +179,13 @@
     <t>現金</t>
   </si>
   <si>
-    <t>陳麗卿 新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>石旭松 新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>96年02月 06日</t>
+    <t>陳麗卿新北市泰山區明志路</t>
+  </si>
+  <si>
+    <t>石旭松新北市泰山區明志路</t>
+  </si>
+  <si>
+    <t>96年02月06日</t>
   </si>
   <si>
     <t>借款</t>
@@ -499,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,31 +575,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>365</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -569,25 +659,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -595,25 +685,25 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>148.31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -631,22 +721,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -654,19 +744,19 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
@@ -687,19 +777,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -707,16 +797,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2">
         <v>224386</v>
@@ -737,22 +827,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -760,22 +850,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -783,22 +873,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -62,10 +62,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市大安區龍泉段一小段02930000地號</t>
-  </si>
-  <si>
-    <t>100000分之16216</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>臺北市大安區龍泉段一小段05819000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>高金素梅</t>
@@ -80,54 +86,6 @@
     <t>25000000(土地建物與車位合併價）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp2f3b1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市大安區龍泉段一小段05819000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>馬自達(休旅車）</t>
   </si>
   <si>
@@ -137,18 +95,6 @@
     <t>(自用）</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>臺酿行群賢分行</t>
   </si>
   <si>
@@ -161,34 +107,19 @@
     <t>局金素梅</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>現金</t>
   </si>
   <si>
     <t>陳麗卿新北市泰山區明志路</t>
   </si>
   <si>
+    <t>96年02月06日</t>
+  </si>
+  <si>
+    <t>借款</t>
+  </si>
+  <si>
     <t>石旭松新北市泰山區明志路</t>
-  </si>
-  <si>
-    <t>96年02月06日</t>
-  </si>
-  <si>
-    <t>借款</t>
   </si>
 </sst>
 </file>
@@ -547,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,52 +527,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>365</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>926</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -651,59 +541,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="B1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>148.31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
-        <v>148.31</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -712,6 +576,69 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2967</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1">
+        <v>224386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -721,174 +648,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="E1" s="1">
+        <v>6000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2967</v>
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="E2" s="2">
+        <v>4000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>44</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2">
-        <v>224386</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2">
-        <v>6000000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
   <si>
     <t>name</t>
   </si>
@@ -68,22 +68,40 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市大安區龍泉段一小段02930000地號</t>
+  </si>
+  <si>
+    <t>100000分之16216</t>
+  </si>
+  <si>
+    <t>高金素梅</t>
+  </si>
+  <si>
+    <t>92年12月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>25000000(土地建物與車位合併價）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp2f3b1</t>
+  </si>
+  <si>
     <t>臺北市大安區龍泉段一小段05819000建號</t>
   </si>
   <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>高金素梅</t>
-  </si>
-  <si>
-    <t>92年12月25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>25000000(土地建物與車位合併價）</t>
   </si>
   <si>
     <t>馬自達(休旅車）</t>
@@ -478,13 +496,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,6 +550,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>365</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.16216</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>59.1884</v>
       </c>
     </row>
   </sheetData>
@@ -541,33 +612,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>148.31</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>926</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>148.31</v>
       </c>
     </row>
   </sheetData>
@@ -576,69 +727,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2967</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1">
-        <v>224386</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -648,45 +736,174 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2967</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2967</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1">
+        <v>224386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2">
+        <v>224386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1">
         <v>6000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2">
         <v>4000000</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
+      <c r="F3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
   <si>
     <t>name</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>全部</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>馬自達(休旅車）</t>
@@ -728,38 +731,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1">
-        <v>2967</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
@@ -768,13 +792,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>926</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -792,16 +837,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1">
         <v>224386</v>
@@ -812,16 +857,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2">
         <v>224386</v>
@@ -842,22 +887,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1">
         <v>6000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -865,22 +910,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -888,22 +933,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -104,6 +104,9 @@
     <t>全部</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -114,6 +117,9 @@
   </si>
   <si>
     <t>(自用）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺酿行群賢分行</t>
@@ -697,7 +703,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -742,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -783,7 +789,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>2967</v>
@@ -792,16 +798,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2">
         <v>1500000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -837,16 +843,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1">
         <v>224386</v>
@@ -857,16 +863,16 @@
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2">
         <v>224386</v>
@@ -887,22 +893,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1">
         <v>6000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -910,22 +916,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -933,22 +939,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,15 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺酿行群賢分行</t>
   </si>
   <si>
@@ -132,6 +141,9 @@
   </si>
   <si>
     <t>局金素梅</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>現金</t>
@@ -835,13 +847,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>34</v>
       </c>
@@ -852,30 +864,72 @@
         <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1">
-        <v>224386</v>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2">
         <v>224386</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>926</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -893,22 +947,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1">
         <v>6000000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -916,22 +970,22 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -939,22 +993,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2">
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
+++ b/legislator/property/output/normal/高金素梅_2011-11-22_財產申報表_tmp2f3b1.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
   <si>
     <t>name</t>
   </si>
@@ -146,19 +146,28 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>現金</t>
   </si>
   <si>
     <t>陳麗卿新北市泰山區明志路</t>
   </si>
   <si>
+    <t>石旭松新北市泰山區明志路</t>
+  </si>
+  <si>
     <t>96年02月06日</t>
   </si>
   <si>
     <t>借款</t>
   </si>
   <si>
-    <t>石旭松新北市泰山區明志路</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -939,61 +948,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1">
-        <v>6000000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2">
         <v>6000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>926</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1005,10 +1056,31 @@
         <v>4000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>926</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
